--- a/컬럼 분류.xlsx
+++ b/컬럼 분류.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\semi_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AD1828-C33B-4C3B-8408-D31F1706E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEAA51E-2A2F-481F-AA39-E50F8126E7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{52A0B034-486F-4C4C-AAF2-4288E97B4A17}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>Identifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,18 @@
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categorical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대출 상환 불이행 여부(이행: 0, 불이행: 1) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AC29AB-4B08-4D59-B819-2AC14F930A3C}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -742,7 +754,7 @@
     <col min="3" max="3" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -752,8 +764,17 @@
       <c r="C1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,8 +784,17 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -776,7 +806,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -785,7 +815,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -794,7 +824,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -804,7 +834,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="33.6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -813,7 +843,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="33.6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -822,7 +852,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -831,7 +861,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -840,7 +870,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -849,7 +879,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -858,7 +888,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -867,7 +897,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -876,7 +906,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -885,7 +915,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -927,175 +957,186 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="33.6" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="50.4" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="50.4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="33.6" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="33.6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="33.6" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+    <row r="39" spans="1:3" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>81</v>
       </c>
     </row>
